--- a/users_data.xlsx
+++ b/users_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,94 +675,6 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>89d1f534-ae0f-11ed-9bd8-0242ac110002</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Lucie</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Newbie</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>lucie.newbie@world.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>89d1f58e-ae0f-11ed-9bd8-0242ac110002</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Nola</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Newbie</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nola.newbie@world.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>89d1f5de-ae0f-11ed-9bd8-0242ac110002</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Neva</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Newbie</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>neva.newbie@world.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>89d1f638-ae0f-11ed-9bd8-0242ac110002</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Nora</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Newbie</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>nora.newbie@world.com</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
